--- a/data/trans_orig/Q5412-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3704</v>
+        <v>4164</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14462</v>
+        <v>14925</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06365977088194334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0287122825418095</v>
+        <v>0.03228387688427955</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1121162377903344</v>
+        <v>0.1157039501565392</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>18381</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11314</v>
+        <v>11045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28892</v>
+        <v>28399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06752594183450254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04156393234480415</v>
+        <v>0.04057477869061456</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1061383846285261</v>
+        <v>0.1043266564271737</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -786,19 +786,19 @@
         <v>26593</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17527</v>
+        <v>18199</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37511</v>
+        <v>38334</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06628292977389982</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0436871262658978</v>
+        <v>0.04536231841004534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0934972421519633</v>
+        <v>0.09554818288863781</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>120779</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114529</v>
+        <v>114066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125287</v>
+        <v>124827</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9363402291180567</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.887883762209666</v>
+        <v>0.8842960498434608</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9712877174581905</v>
+        <v>0.9677161231157211</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -836,19 +836,19 @@
         <v>253831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243320</v>
+        <v>243813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260898</v>
+        <v>261167</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9324740581654974</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.893861615371474</v>
+        <v>0.8956733435728262</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9584360676551958</v>
+        <v>0.9594252213093855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>378</v>
@@ -857,19 +857,19 @@
         <v>374610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>363692</v>
+        <v>362869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>383676</v>
+        <v>383004</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9337170702261002</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9065027578480367</v>
+        <v>0.9044518171113621</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9563128737341021</v>
+        <v>0.9546376815899547</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5469</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2500</v>
+        <v>1819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11456</v>
+        <v>11640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03364556148284242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01538117596150715</v>
+        <v>0.01118707985794315</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07047314945163384</v>
+        <v>0.07160359513373543</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -982,19 +982,19 @@
         <v>4324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10302</v>
+        <v>10778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02123874707758816</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005539644350024859</v>
+        <v>0.005585762788174666</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05059798063351608</v>
+        <v>0.05293624383148652</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1003,19 +1003,19 @@
         <v>9793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4667</v>
+        <v>4987</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17045</v>
+        <v>17469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02674681750626779</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0127473646231279</v>
+        <v>0.01362061489421215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04655063442547635</v>
+        <v>0.04770852235938288</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>157086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>151099</v>
+        <v>150915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>160055</v>
+        <v>160736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9663544385171575</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.929526850548366</v>
+        <v>0.9283964048662638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9846188240384929</v>
+        <v>0.9888129201420568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>196</v>
@@ -1053,19 +1053,19 @@
         <v>199273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193295</v>
+        <v>192819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>202469</v>
+        <v>202460</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9787612529224119</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9494020193664839</v>
+        <v>0.9470637561685148</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9944603556499751</v>
+        <v>0.9944142372118253</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>361</v>
@@ -1074,19 +1074,19 @@
         <v>356360</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>349108</v>
+        <v>348684</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>361486</v>
+        <v>361166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9732531824937322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9534493655745235</v>
+        <v>0.9522914776406167</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9872526353768721</v>
+        <v>0.9863793851057878</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4630</v>
+        <v>5502</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006347321898314039</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03194714373124798</v>
+        <v>0.03796595134227401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>4661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1148</v>
+        <v>1181</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11572</v>
+        <v>10637</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03190822182640531</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007860692109102991</v>
+        <v>0.008083471717380965</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0792246180925309</v>
+        <v>0.07282015515079021</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1220,19 +1220,19 @@
         <v>5581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1235</v>
+        <v>2095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12567</v>
+        <v>13081</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01917831665080969</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004243078944262998</v>
+        <v>0.007200197762591292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04318689540656768</v>
+        <v>0.04495580902972384</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>143996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140286</v>
+        <v>139414</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>144916</v>
@@ -1258,7 +1258,7 @@
         <v>0.993652678101686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.968052856268752</v>
+        <v>0.9620340486577259</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>141406</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>134495</v>
+        <v>135430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>144919</v>
+        <v>144886</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9680917781735947</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9207753819074691</v>
+        <v>0.9271798448492098</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.992139307890897</v>
+        <v>0.991916528282619</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>279</v>
@@ -1291,19 +1291,19 @@
         <v>285403</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>278417</v>
+        <v>277903</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>289749</v>
+        <v>288889</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9808216833491903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9568131045934326</v>
+        <v>0.9550441909702747</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.995756921055737</v>
+        <v>0.9927998022374087</v>
       </c>
     </row>
     <row r="12">
@@ -1564,19 +1564,19 @@
         <v>14601</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8477</v>
+        <v>9026</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23745</v>
+        <v>24076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03005453877634266</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01744998105778759</v>
+        <v>0.01857909534315832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04887876294623947</v>
+        <v>0.04955956851622557</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1585,19 +1585,19 @@
         <v>27366</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17717</v>
+        <v>17955</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39079</v>
+        <v>38564</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04139435293437139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02679945605949182</v>
+        <v>0.02715811705525596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05911143503283926</v>
+        <v>0.0583317146333616</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1606,19 +1606,19 @@
         <v>41967</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30219</v>
+        <v>30608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56121</v>
+        <v>54299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03659109820991855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0263477505272617</v>
+        <v>0.02668757312406447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04893222262777411</v>
+        <v>0.04734372473059249</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>471203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>462059</v>
+        <v>461728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>477327</v>
+        <v>476778</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9699454612236573</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9511212370537607</v>
+        <v>0.9504404314837744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9825500189422125</v>
+        <v>0.9814209046568417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>619</v>
@@ -1656,19 +1656,19 @@
         <v>633746</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>622033</v>
+        <v>622548</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>643395</v>
+        <v>643157</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9586056470656286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9408885649671608</v>
+        <v>0.9416682853666384</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9732005439405084</v>
+        <v>0.9728418829447457</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1109</v>
@@ -1677,19 +1677,19 @@
         <v>1104949</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1090795</v>
+        <v>1092617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1116697</v>
+        <v>1116308</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9634089017900814</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9510677773722258</v>
+        <v>0.952656275269408</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9736522494727382</v>
+        <v>0.9733124268759367</v>
       </c>
     </row>
     <row r="18">
@@ -2021,19 +2021,19 @@
         <v>11896</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6479</v>
+        <v>6257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20986</v>
+        <v>19968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08649746511779309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04710564118136591</v>
+        <v>0.04549714548625743</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1525875198392325</v>
+        <v>0.1451867036649827</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2042,19 +2042,19 @@
         <v>26055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17403</v>
+        <v>17475</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37575</v>
+        <v>37738</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1208309086475506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08070739315577102</v>
+        <v>0.08104150187470176</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1742539324691872</v>
+        <v>0.1750107040807996</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2063,19 +2063,19 @@
         <v>37952</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27687</v>
+        <v>27074</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51241</v>
+        <v>50127</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1074605064314763</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07839700159571292</v>
+        <v>0.07666030143072171</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1450889821814916</v>
+        <v>0.141934571783478</v>
       </c>
     </row>
     <row r="5">
@@ -2092,19 +2092,19 @@
         <v>125637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116547</v>
+        <v>117565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>131054</v>
+        <v>131276</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9135025348822069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8474124801607675</v>
+        <v>0.8548132963350175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.952894358818634</v>
+        <v>0.9545028545137426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -2113,19 +2113,19 @@
         <v>189579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178059</v>
+        <v>177896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>198231</v>
+        <v>198159</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8791690913524494</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8257460675308129</v>
+        <v>0.8249892959192006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9192926068442291</v>
+        <v>0.9189584981252984</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>289</v>
@@ -2134,19 +2134,19 @@
         <v>315215</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>301926</v>
+        <v>303040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>325480</v>
+        <v>326093</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8925394935685237</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8549110178185086</v>
+        <v>0.858065428216522</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9216029984042882</v>
+        <v>0.9233396985692778</v>
       </c>
     </row>
     <row r="6">
@@ -2238,19 +2238,19 @@
         <v>13858</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7302</v>
+        <v>7146</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24152</v>
+        <v>24005</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08035255594771526</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0423386118106694</v>
+        <v>0.04143056119986169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1400346299737559</v>
+        <v>0.1391829361336642</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -2259,19 +2259,19 @@
         <v>27702</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18270</v>
+        <v>18034</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39000</v>
+        <v>38645</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1121238680919695</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07394642132368655</v>
+        <v>0.07299357109706922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1578508197985424</v>
+        <v>0.1564141441224243</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -2280,19 +2280,19 @@
         <v>41560</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29797</v>
+        <v>30225</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55198</v>
+        <v>56121</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0990628129446869</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07102414500882696</v>
+        <v>0.07204406392432497</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1315702706919772</v>
+        <v>0.1337693331156788</v>
       </c>
     </row>
     <row r="8">
@@ -2309,19 +2309,19 @@
         <v>158612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>148318</v>
+        <v>148465</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>165168</v>
+        <v>165324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9196474440522847</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8599653700262445</v>
+        <v>0.8608170638663357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9576613881893307</v>
+        <v>0.9585694388001382</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>210</v>
@@ -2330,19 +2330,19 @@
         <v>219365</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>208067</v>
+        <v>208422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>228797</v>
+        <v>229033</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8878761319080305</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8421491802014576</v>
+        <v>0.8435858558775761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9260535786763134</v>
+        <v>0.9270064289029307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>356</v>
@@ -2351,19 +2351,19 @@
         <v>377976</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>364338</v>
+        <v>363415</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>389739</v>
+        <v>389311</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9009371870553131</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8684297293080228</v>
+        <v>0.8662306668843212</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9289758549911731</v>
+        <v>0.9279559360756751</v>
       </c>
     </row>
     <row r="9">
@@ -2455,19 +2455,19 @@
         <v>7156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3035</v>
+        <v>3077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13588</v>
+        <v>13995</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04304515116331518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01825580173295998</v>
+        <v>0.01851036713073468</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08173866520163701</v>
+        <v>0.08418741667784291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2476,19 +2476,19 @@
         <v>19201</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11426</v>
+        <v>11608</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29885</v>
+        <v>31482</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09996825698687761</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05948749806067864</v>
+        <v>0.06043552734739577</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1555957424597187</v>
+        <v>0.1639056559595318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -2497,19 +2497,19 @@
         <v>26357</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17034</v>
+        <v>16993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37125</v>
+        <v>37490</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07355894987256624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04754018426701114</v>
+        <v>0.04742724356011489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1036124367043959</v>
+        <v>0.1046305636589348</v>
       </c>
     </row>
     <row r="11">
@@ -2526,19 +2526,19 @@
         <v>159079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>152647</v>
+        <v>152240</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163200</v>
+        <v>163158</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9569548488366848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.918261334798363</v>
+        <v>0.9158125833221571</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.98174419826704</v>
+        <v>0.9814896328692653</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>163</v>
@@ -2547,19 +2547,19 @@
         <v>172870</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162186</v>
+        <v>160589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180645</v>
+        <v>180463</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9000317430131224</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8444042575402815</v>
+        <v>0.8360943440404682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9405125019393215</v>
+        <v>0.9395644726526042</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>307</v>
@@ -2568,19 +2568,19 @@
         <v>331949</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>321181</v>
+        <v>320816</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>341272</v>
+        <v>341313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9264410501274337</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8963875632956041</v>
+        <v>0.8953694363410649</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9524598157329889</v>
+        <v>0.952572756439885</v>
       </c>
     </row>
     <row r="12">
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6363</v>
+        <v>6511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02667011748630026</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08147252554144119</v>
+        <v>0.08336616174623369</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -2693,19 +2693,19 @@
         <v>5565</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2119</v>
+        <v>2078</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11444</v>
+        <v>11292</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06543389331095538</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02491696171372479</v>
+        <v>0.02443516188692995</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1345597264556653</v>
+        <v>0.1327726030665029</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -2714,19 +2714,19 @@
         <v>7648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3249</v>
+        <v>3262</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14560</v>
+        <v>14366</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04687806543328749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01991578181282183</v>
+        <v>0.01999723614449331</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08924684518223806</v>
+        <v>0.08805469240574676</v>
       </c>
     </row>
     <row r="14">
@@ -2743,7 +2743,7 @@
         <v>76014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71734</v>
+        <v>71586</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>78097</v>
@@ -2752,7 +2752,7 @@
         <v>0.9733298825136998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9185274744585588</v>
+        <v>0.916633838253767</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2764,19 +2764,19 @@
         <v>79485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73606</v>
+        <v>73758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82931</v>
+        <v>82972</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9345661066890446</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8654402735443352</v>
+        <v>0.8672273969334968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9750830382862752</v>
+        <v>0.9755648381130699</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -2785,19 +2785,19 @@
         <v>155498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>148586</v>
+        <v>148780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>159897</v>
+        <v>159884</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9531219345667125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9107531548177605</v>
+        <v>0.9119453075942535</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9800842181871781</v>
+        <v>0.9800027638555068</v>
       </c>
     </row>
     <row r="15">
@@ -2889,19 +2889,19 @@
         <v>34993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24376</v>
+        <v>23687</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49301</v>
+        <v>48666</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06312633997205605</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04397414323959751</v>
+        <v>0.04273106148153735</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08893797924801075</v>
+        <v>0.08779166569566922</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -2910,19 +2910,19 @@
         <v>78523</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63461</v>
+        <v>62411</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98034</v>
+        <v>96200</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1061383884302401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08577923498686515</v>
+        <v>0.08436006251996883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1325110134665536</v>
+        <v>0.1300318098428153</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -2931,19 +2931,19 @@
         <v>113516</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94475</v>
+        <v>93752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136788</v>
+        <v>137258</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08771475268561041</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07300142958671391</v>
+        <v>0.07244285827336594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1056964122799496</v>
+        <v>0.1060601452649825</v>
       </c>
     </row>
     <row r="17">
@@ -2960,19 +2960,19 @@
         <v>519341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>505033</v>
+        <v>505668</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>529958</v>
+        <v>530647</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9368736600279439</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9110620207519892</v>
+        <v>0.9122083343043305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9560258567604024</v>
+        <v>0.9572689385184626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>620</v>
@@ -2981,19 +2981,19 @@
         <v>661298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>641787</v>
+        <v>643621</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>676360</v>
+        <v>677410</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8938616115697599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8674889865334466</v>
+        <v>0.8699681901571847</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.914220765013135</v>
+        <v>0.9156399374800314</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1088</v>
@@ -3002,19 +3002,19 @@
         <v>1180639</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1157367</v>
+        <v>1156897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1199680</v>
+        <v>1200403</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9122852473143895</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8943035877200505</v>
+        <v>0.8939398547350182</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9269985704132864</v>
+        <v>0.9275571417266352</v>
       </c>
     </row>
     <row r="18">
@@ -3346,19 +3346,19 @@
         <v>11390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5987</v>
+        <v>6074</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18176</v>
+        <v>18254</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06842540431903404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0359652712285606</v>
+        <v>0.03648922906406422</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1091982325503972</v>
+        <v>0.1096616511499604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -3367,19 +3367,19 @@
         <v>19980</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12044</v>
+        <v>12491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31641</v>
+        <v>30810</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07673489963611733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04625599598114053</v>
+        <v>0.04797442087640062</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1215211317312009</v>
+        <v>0.118326568739755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -3388,19 +3388,19 @@
         <v>31370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20848</v>
+        <v>21351</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44493</v>
+        <v>43759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07349439425211175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04884242243655681</v>
+        <v>0.05002161506782673</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1042392891398412</v>
+        <v>0.1025215291574871</v>
       </c>
     </row>
     <row r="5">
@@ -3417,19 +3417,19 @@
         <v>155064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>148278</v>
+        <v>148200</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160467</v>
+        <v>160380</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.931574595680966</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8908017674496028</v>
+        <v>0.8903383488500396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9640347287714394</v>
+        <v>0.963510770935936</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -3438,19 +3438,19 @@
         <v>240398</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>228737</v>
+        <v>229568</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>248334</v>
+        <v>247887</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9232651003638827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.878478868268799</v>
+        <v>0.8816734312602449</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9537440040188593</v>
+        <v>0.9520255791235993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>369</v>
@@ -3459,19 +3459,19 @@
         <v>395462</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382339</v>
+        <v>383073</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>405984</v>
+        <v>405481</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9265056057478882</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.895760710860159</v>
+        <v>0.897478470842513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9511575775634433</v>
+        <v>0.9499783849321732</v>
       </c>
     </row>
     <row r="6">
@@ -3563,19 +3563,19 @@
         <v>2436</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6427</v>
+        <v>6935</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01435103591176464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004448587270544574</v>
+        <v>0.004424618392605232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03785925298595014</v>
+        <v>0.04084983184086789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3584,19 +3584,19 @@
         <v>12768</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6319</v>
+        <v>6083</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23026</v>
+        <v>22652</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05782394798341803</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02861609615612975</v>
+        <v>0.02754810580352816</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1042807994304592</v>
+        <v>0.1025887191404925</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -3605,19 +3605,19 @@
         <v>15204</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8514</v>
+        <v>8313</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24808</v>
+        <v>24685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03892813131652927</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02179917587116825</v>
+        <v>0.0212837440011274</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06351788804433713</v>
+        <v>0.06320382577233044</v>
       </c>
     </row>
     <row r="8">
@@ -3634,19 +3634,19 @@
         <v>167327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>163336</v>
+        <v>162828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>169008</v>
+        <v>169012</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9856489640882353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9621407470140498</v>
+        <v>0.9591501681591316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9955514127294555</v>
+        <v>0.9955753816073948</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>178</v>
@@ -3655,19 +3655,19 @@
         <v>208037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>197779</v>
+        <v>198153</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>214486</v>
+        <v>214722</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9421760520165819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8957192005695408</v>
+        <v>0.8974112808595074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9713839038438703</v>
+        <v>0.9724518941964718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>358</v>
@@ -3676,19 +3676,19 @@
         <v>375364</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>365760</v>
+        <v>365883</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>382054</v>
+        <v>382255</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9610718686834707</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.936482111955663</v>
+        <v>0.9367961742276691</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9782008241288317</v>
+        <v>0.9787162559988724</v>
       </c>
     </row>
     <row r="9">
@@ -3780,19 +3780,19 @@
         <v>4387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11007</v>
+        <v>10270</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02816245840372025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007878614497966851</v>
+        <v>0.007842595093274599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07066232157355662</v>
+        <v>0.06593138015162628</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3801,19 +3801,19 @@
         <v>15846</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8633</v>
+        <v>9049</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26962</v>
+        <v>27146</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08607087153738631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04689351491165932</v>
+        <v>0.04915005914031309</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1464464679426294</v>
+        <v>0.1474467420357292</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3822,19 +3822,19 @@
         <v>20233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11775</v>
+        <v>11791</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32676</v>
+        <v>32882</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05953050099893915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03464345828666254</v>
+        <v>0.03469291560560098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0961411043671124</v>
+        <v>0.09674551070553072</v>
       </c>
     </row>
     <row r="11">
@@ -3851,19 +3851,19 @@
         <v>151384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144764</v>
+        <v>145501</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>154544</v>
+        <v>154549</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9718375415962798</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9293376784264435</v>
+        <v>0.9340686198483733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9921213855020332</v>
+        <v>0.9921574049067219</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -3872,19 +3872,19 @@
         <v>168260</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157144</v>
+        <v>156960</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>175473</v>
+        <v>175057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9139291284626136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8535535320573709</v>
+        <v>0.8525532579642708</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9531064850883408</v>
+        <v>0.950849940859687</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>302</v>
@@ -3893,19 +3893,19 @@
         <v>319644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>307201</v>
+        <v>306995</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>328102</v>
+        <v>328086</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9404694990010608</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9038588956328876</v>
+        <v>0.9032544892944694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9653565417133374</v>
+        <v>0.9653070843943991</v>
       </c>
     </row>
     <row r="12">
@@ -3997,19 +3997,19 @@
         <v>2828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8636</v>
+        <v>7426</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03215230274640871</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01019875244500255</v>
+        <v>0.009930225010820465</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09819842202829283</v>
+        <v>0.08443517973085074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4018,19 +4018,19 @@
         <v>3681</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1180</v>
+        <v>1195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9116</v>
+        <v>10358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03455272982356729</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01107289699870385</v>
+        <v>0.0112214085745018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08556660282268194</v>
+        <v>0.09722717087303324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4039,19 +4039,19 @@
         <v>6509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2322</v>
+        <v>2367</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13317</v>
+        <v>14157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03346724709517677</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01194196332266955</v>
+        <v>0.01217257828007793</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06847422246874059</v>
+        <v>0.07279353931696624</v>
       </c>
     </row>
     <row r="14">
@@ -4068,19 +4068,19 @@
         <v>85117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>79309</v>
+        <v>80519</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87048</v>
+        <v>87072</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9678476972535913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9018015779717073</v>
+        <v>0.9155648202691491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9898012475549974</v>
+        <v>0.9900697749891795</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -4089,19 +4089,19 @@
         <v>102855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97420</v>
+        <v>96178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105356</v>
+        <v>105341</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9654472701764327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9144333971773196</v>
+        <v>0.9027728291269668</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9889271030012962</v>
+        <v>0.9887785914254983</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>174</v>
@@ -4110,19 +4110,19 @@
         <v>187972</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>181164</v>
+        <v>180324</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>192159</v>
+        <v>192114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9665327529048232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9315257775312594</v>
+        <v>0.9272064606830338</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9880580366773305</v>
+        <v>0.987827421719922</v>
       </c>
     </row>
     <row r="15">
@@ -4214,19 +4214,19 @@
         <v>21041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12807</v>
+        <v>14692</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30032</v>
+        <v>32033</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0362808898190953</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02208328189458374</v>
+        <v>0.02533425578055853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0517850398716259</v>
+        <v>0.05523570248944119</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -4235,19 +4235,19 @@
         <v>52275</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37139</v>
+        <v>36852</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70942</v>
+        <v>69155</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06772929765518319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04811877866592616</v>
+        <v>0.04774639194091037</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09191446023520555</v>
+        <v>0.08960002148302841</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -4256,19 +4256,19 @@
         <v>73316</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55686</v>
+        <v>58006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92893</v>
+        <v>96328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05423724121687874</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04119497388616127</v>
+        <v>0.04291122063916904</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06872013177197948</v>
+        <v>0.07126163605818776</v>
       </c>
     </row>
     <row r="17">
@@ -4285,19 +4285,19 @@
         <v>558893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>549902</v>
+        <v>547901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>567127</v>
+        <v>565242</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9637191101809047</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9482149601283744</v>
+        <v>0.944764297510559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9779167181054162</v>
+        <v>0.9746657442194414</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>610</v>
@@ -4306,19 +4306,19 @@
         <v>719549</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>700882</v>
+        <v>702669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>734685</v>
+        <v>734972</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9322707023448168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9080855397647944</v>
+        <v>0.9103999785169716</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9518812213340738</v>
+        <v>0.9522536080590898</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1203</v>
@@ -4327,19 +4327,19 @@
         <v>1278442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1258865</v>
+        <v>1255430</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1296072</v>
+        <v>1293752</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9457627587831212</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9312798682280206</v>
+        <v>0.9287383639418122</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9588050261138388</v>
+        <v>0.9570887793608309</v>
       </c>
     </row>
     <row r="18">
@@ -4671,19 +4671,19 @@
         <v>5006</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2307</v>
+        <v>1957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10317</v>
+        <v>9772</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07440837440594511</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03429458852802026</v>
+        <v>0.02908494157952907</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1533511338423468</v>
+        <v>0.1452546177779833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -4692,19 +4692,19 @@
         <v>19207</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13785</v>
+        <v>13509</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25644</v>
+        <v>25478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1346550010450153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09664769806652501</v>
+        <v>0.09471326770752023</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1797875026463268</v>
+        <v>0.1786251141601699</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -4713,19 +4713,19 @@
         <v>24212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17674</v>
+        <v>17878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31667</v>
+        <v>32124</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.115345880777151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08419613782892203</v>
+        <v>0.0851700598587361</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1508591573333947</v>
+        <v>0.1530332330790929</v>
       </c>
     </row>
     <row r="5">
@@ -4742,19 +4742,19 @@
         <v>62271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56960</v>
+        <v>57505</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64970</v>
+        <v>65320</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9255916255940549</v>
+        <v>0.9255916255940551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8466488661576531</v>
+        <v>0.8547453822220167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9657054114719799</v>
+        <v>0.9709150584204711</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>229</v>
@@ -4763,19 +4763,19 @@
         <v>123428</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116991</v>
+        <v>117157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128850</v>
+        <v>129126</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8653449989549846</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8202124973536732</v>
+        <v>0.82137488583983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.903352301933475</v>
+        <v>0.9052867322924798</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -4784,19 +4784,19 @@
         <v>185700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>178245</v>
+        <v>177788</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192238</v>
+        <v>192034</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8846541192228491</v>
+        <v>0.884654119222849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8491408426666052</v>
+        <v>0.8469667669209071</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9158038621710772</v>
+        <v>0.914829940141264</v>
       </c>
     </row>
     <row r="6">
@@ -4888,19 +4888,19 @@
         <v>15797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9980</v>
+        <v>10460</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22523</v>
+        <v>23222</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07847107334102477</v>
+        <v>0.07847107334102478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04957466675268359</v>
+        <v>0.05195908986666235</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1118839530366482</v>
+        <v>0.1153601539697153</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -4909,19 +4909,19 @@
         <v>32783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25888</v>
+        <v>25594</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41765</v>
+        <v>42336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1084336280979221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08562778247292421</v>
+        <v>0.08465517170214032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1381410136701469</v>
+        <v>0.1400292467409254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -4930,19 +4930,19 @@
         <v>48580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39215</v>
+        <v>38782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60476</v>
+        <v>59405</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09645766237941508</v>
+        <v>0.09645766237941505</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07786286232430192</v>
+        <v>0.07700358728824593</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.120078387369664</v>
+        <v>0.1179518541404686</v>
       </c>
     </row>
     <row r="8">
@@ -4959,19 +4959,19 @@
         <v>185507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178781</v>
+        <v>178082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>191324</v>
+        <v>190844</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9215289266589752</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8881160469633518</v>
+        <v>0.8846398460302848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9504253332473163</v>
+        <v>0.9480409101333378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>505</v>
@@ -4980,19 +4980,19 @@
         <v>269554</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>260572</v>
+        <v>260001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276449</v>
+        <v>276743</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.891566371902078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8618589863298529</v>
+        <v>0.8599707532590743</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.914372217527076</v>
+        <v>0.9153448282978596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>775</v>
@@ -5001,19 +5001,19 @@
         <v>455061</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>443165</v>
+        <v>444236</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>464426</v>
+        <v>464859</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.903542337620585</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.879921612630336</v>
+        <v>0.8820481458595312</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9221371376756978</v>
+        <v>0.922996412711754</v>
       </c>
     </row>
     <row r="9">
@@ -5105,19 +5105,19 @@
         <v>7136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3723</v>
+        <v>3615</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12439</v>
+        <v>12806</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03112006362079519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01623485915835616</v>
+        <v>0.01576606628470769</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05424499437071818</v>
+        <v>0.05584315211120708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -5126,19 +5126,19 @@
         <v>20395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14168</v>
+        <v>14322</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27337</v>
+        <v>28446</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08623173669121652</v>
+        <v>0.08623173669121653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05990550382813076</v>
+        <v>0.06055472259800493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1155835233314798</v>
+        <v>0.1202744276147865</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -5147,19 +5147,19 @@
         <v>27531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20325</v>
+        <v>20276</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35683</v>
+        <v>36431</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05910148378892181</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04363291950261119</v>
+        <v>0.0435276570962897</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07660281436471447</v>
+        <v>0.0782068179854384</v>
       </c>
     </row>
     <row r="11">
@@ -5176,19 +5176,19 @@
         <v>222178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216875</v>
+        <v>216508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225591</v>
+        <v>225699</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9688799363792048</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9457550056292818</v>
+        <v>0.9441568478887928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9837651408416439</v>
+        <v>0.9842339337152923</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>411</v>
@@ -5197,19 +5197,19 @@
         <v>216114</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>209172</v>
+        <v>208063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>222341</v>
+        <v>222187</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9137682633087835</v>
+        <v>0.9137682633087836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8844164766685202</v>
+        <v>0.879725572385214</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9400944961718691</v>
+        <v>0.9394452774019952</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>728</v>
@@ -5218,19 +5218,19 @@
         <v>438292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>430140</v>
+        <v>429392</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>445498</v>
+        <v>445547</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9408985162110782</v>
+        <v>0.9408985162110781</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9233971856352857</v>
+        <v>0.9217931820145615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9563670804973888</v>
+        <v>0.9564723429037101</v>
       </c>
     </row>
     <row r="12">
@@ -5322,19 +5322,19 @@
         <v>5696</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2852</v>
+        <v>2933</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11898</v>
+        <v>10910</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02675882405079372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01339833765700062</v>
+        <v>0.01377794766484514</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05589992835087676</v>
+        <v>0.05125749605590003</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5343,19 +5343,19 @@
         <v>12585</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8274</v>
+        <v>7956</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18220</v>
+        <v>18450</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06039499112997943</v>
+        <v>0.06039499112997944</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03970499434865956</v>
+        <v>0.03818291375541372</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08743868142768096</v>
+        <v>0.08854272474262739</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -5364,19 +5364,19 @@
         <v>18280</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12957</v>
+        <v>12755</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25280</v>
+        <v>25213</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04339839159912755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03076007832550627</v>
+        <v>0.03028139655949361</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06001707859391249</v>
+        <v>0.05985662903354895</v>
       </c>
     </row>
     <row r="14">
@@ -5393,19 +5393,19 @@
         <v>207150</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200948</v>
+        <v>201936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>209994</v>
+        <v>209913</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9732411759492064</v>
+        <v>0.9732411759492062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9441000716491235</v>
+        <v>0.9487425039440988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9866016623429994</v>
+        <v>0.9862220523351546</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -5414,19 +5414,19 @@
         <v>195790</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>190155</v>
+        <v>189925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>200101</v>
+        <v>200419</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9396050088700206</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.912561318572319</v>
+        <v>0.911457275257373</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9602950056513401</v>
+        <v>0.9618170862445864</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>664</v>
@@ -5435,19 +5435,19 @@
         <v>402940</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>395940</v>
+        <v>396007</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>408263</v>
+        <v>408465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9566016084008724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9399829214060875</v>
+        <v>0.940143370966451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9692399216744938</v>
+        <v>0.9697186034405063</v>
       </c>
     </row>
     <row r="15">
@@ -5539,19 +5539,19 @@
         <v>33634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25356</v>
+        <v>24828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44317</v>
+        <v>42664</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04732285654323659</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03567565656458337</v>
+        <v>0.03493258489774412</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06235323710604573</v>
+        <v>0.06002812665371476</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>162</v>
@@ -5560,19 +5560,19 @@
         <v>84969</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73179</v>
+        <v>72434</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>100143</v>
+        <v>99588</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09548669710767006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08223708307759432</v>
+        <v>0.08140000021319435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1125386278165749</v>
+        <v>0.1119145809606914</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>215</v>
@@ -5581,19 +5581,19 @@
         <v>118604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102355</v>
+        <v>103496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135540</v>
+        <v>136454</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07409964985521202</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06394785499203356</v>
+        <v>0.06466119699973051</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08468101150529572</v>
+        <v>0.0852517745249962</v>
       </c>
     </row>
     <row r="17">
@@ -5610,19 +5610,19 @@
         <v>677107</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>666424</v>
+        <v>668077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>685385</v>
+        <v>685913</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9526771434567635</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9376467628939545</v>
+        <v>0.9399718733462853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9643243434354166</v>
+        <v>0.965067415102256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1516</v>
@@ -5631,19 +5631,19 @@
         <v>804886</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>789712</v>
+        <v>790267</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>816676</v>
+        <v>817421</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.90451330289233</v>
+        <v>0.9045133028923299</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8874613721834252</v>
+        <v>0.8880854190393089</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9177629169224057</v>
+        <v>0.9185999997868061</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2483</v>
@@ -5652,19 +5652,19 @@
         <v>1481992</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1465056</v>
+        <v>1464142</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1498241</v>
+        <v>1497100</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.925900350144788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9153189884947039</v>
+        <v>0.9147482254750039</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.936052145007966</v>
+        <v>0.9353388030002696</v>
       </c>
     </row>
     <row r="18">
